--- a/Code/student.xlsx
+++ b/Code/student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32284\Desktop\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32284\Desktop\Grades\GradesAnalysis\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA3685-B6A5-4A73-9589-35F1E7EB0B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D13ECC-5A30-4D43-A4E0-691771E2DBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L6" sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
